--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Col1a1-Ddr1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Col1a1-Ddr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Ddr1</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.12718469279366</v>
+        <v>10.717137</v>
       </c>
       <c r="H2">
-        <v>3.12718469279366</v>
+        <v>32.151411</v>
       </c>
       <c r="I2">
-        <v>0.002321017673262305</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="J2">
-        <v>0.002321017673262305</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.151646949453937</v>
+        <v>0.2304933333333333</v>
       </c>
       <c r="N2">
-        <v>0.151646949453937</v>
+        <v>0.69148</v>
       </c>
       <c r="O2">
-        <v>0.01042604596466986</v>
+        <v>0.01312533644731377</v>
       </c>
       <c r="P2">
-        <v>0.01042604596466986</v>
+        <v>0.01312533644731377</v>
       </c>
       <c r="Q2">
-        <v>0.4742280190412057</v>
+        <v>2.47022863092</v>
       </c>
       <c r="R2">
-        <v>0.4742280190412057</v>
+        <v>22.23205767828</v>
       </c>
       <c r="S2">
-        <v>2.41990369462439E-05</v>
+        <v>0.0001014916165528891</v>
       </c>
       <c r="T2">
-        <v>2.41990369462439E-05</v>
+        <v>0.0001014916165528891</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.12718469279366</v>
+        <v>10.717137</v>
       </c>
       <c r="H3">
-        <v>3.12718469279366</v>
+        <v>32.151411</v>
       </c>
       <c r="I3">
-        <v>0.002321017673262305</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="J3">
-        <v>0.002321017673262305</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.29552741007957</v>
+        <v>4.313814333333333</v>
       </c>
       <c r="N3">
-        <v>4.29552741007957</v>
+        <v>12.941443</v>
       </c>
       <c r="O3">
-        <v>0.2953265224342183</v>
+        <v>0.2456481655127172</v>
       </c>
       <c r="P3">
-        <v>0.2953265224342183</v>
+        <v>0.2456481655127172</v>
       </c>
       <c r="Q3">
-        <v>13.43290756427643</v>
+        <v>46.231739202897</v>
       </c>
       <c r="R3">
-        <v>13.43290756427643</v>
+        <v>416.085652826073</v>
       </c>
       <c r="S3">
-        <v>0.0006854580779529174</v>
+        <v>0.001899473550351522</v>
       </c>
       <c r="T3">
-        <v>0.0006854580779529174</v>
+        <v>0.001899473550351522</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.12718469279366</v>
+        <v>10.717137</v>
       </c>
       <c r="H4">
-        <v>3.12718469279366</v>
+        <v>32.151411</v>
       </c>
       <c r="I4">
-        <v>0.002321017673262305</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="J4">
-        <v>0.002321017673262305</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.283070309117136</v>
+        <v>0.2953356666666667</v>
       </c>
       <c r="N4">
-        <v>0.283070309117136</v>
+        <v>0.886007</v>
       </c>
       <c r="O4">
-        <v>0.01946167769754597</v>
+        <v>0.01681775318111172</v>
       </c>
       <c r="P4">
-        <v>0.01946167769754597</v>
+        <v>0.01681775318111172</v>
       </c>
       <c r="Q4">
-        <v>0.8852131376554773</v>
+        <v>3.165152800653</v>
       </c>
       <c r="R4">
-        <v>0.8852131376554773</v>
+        <v>28.486375205877</v>
       </c>
       <c r="S4">
-        <v>4.517089788733904E-05</v>
+        <v>0.0001300432155769879</v>
       </c>
       <c r="T4">
-        <v>4.517089788733904E-05</v>
+        <v>0.0001300432155769879</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.12718469279366</v>
+        <v>10.717137</v>
       </c>
       <c r="H5">
-        <v>3.12718469279366</v>
+        <v>32.151411</v>
       </c>
       <c r="I5">
-        <v>0.002321017673262305</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="J5">
-        <v>0.002321017673262305</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.496229936752384</v>
+        <v>0.7166709999999999</v>
       </c>
       <c r="N5">
-        <v>0.496229936752384</v>
+        <v>2.150013</v>
       </c>
       <c r="O5">
-        <v>0.03411684935473826</v>
+        <v>0.04081049920619313</v>
       </c>
       <c r="P5">
-        <v>0.03411684935473826</v>
+        <v>0.04081049920619313</v>
       </c>
       <c r="Q5">
-        <v>1.551802662318021</v>
+        <v>7.680661290927</v>
       </c>
       <c r="R5">
-        <v>1.551802662318021</v>
+        <v>69.12595161834301</v>
       </c>
       <c r="S5">
-        <v>7.918581030837516E-05</v>
+        <v>0.0003155670373398026</v>
       </c>
       <c r="T5">
-        <v>7.918581030837516E-05</v>
+        <v>0.0003155670373398026</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.12718469279366</v>
+        <v>10.717137</v>
       </c>
       <c r="H6">
-        <v>3.12718469279366</v>
+        <v>32.151411</v>
       </c>
       <c r="I6">
-        <v>0.002321017673262305</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="J6">
-        <v>0.002321017673262305</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>9.31853603120976</v>
+        <v>0.3116526666666666</v>
       </c>
       <c r="N6">
-        <v>9.31853603120976</v>
+        <v>0.934958</v>
       </c>
       <c r="O6">
-        <v>0.6406689045488276</v>
+        <v>0.0177469172125117</v>
       </c>
       <c r="P6">
-        <v>0.6406689045488276</v>
+        <v>0.0177469172125117</v>
       </c>
       <c r="Q6">
-        <v>29.14078323604534</v>
+        <v>3.340024325082</v>
       </c>
       <c r="R6">
-        <v>29.14078323604534</v>
+        <v>30.060218925738</v>
       </c>
       <c r="S6">
-        <v>0.00148700385016743</v>
+        <v>0.0001372279730853475</v>
       </c>
       <c r="T6">
-        <v>0.00148700385016743</v>
+        <v>0.0001372279730853475</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1277.0726910683</v>
+        <v>10.717137</v>
       </c>
       <c r="H7">
-        <v>1277.0726910683</v>
+        <v>32.151411</v>
       </c>
       <c r="I7">
-        <v>0.9478520065798225</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="J7">
-        <v>0.9478520065798225</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.151646949453937</v>
+        <v>11.69297966666667</v>
       </c>
       <c r="N7">
-        <v>0.151646949453937</v>
+        <v>35.07893900000001</v>
       </c>
       <c r="O7">
-        <v>0.01042604596466986</v>
+        <v>0.6658513284401525</v>
       </c>
       <c r="P7">
-        <v>0.01042604596466986</v>
+        <v>0.6658513284401525</v>
       </c>
       <c r="Q7">
-        <v>193.6641778314378</v>
+        <v>125.315265025881</v>
       </c>
       <c r="R7">
-        <v>193.6641778314378</v>
+        <v>1127.837385232929</v>
       </c>
       <c r="S7">
-        <v>0.009882348588305792</v>
+        <v>0.00514869298616039</v>
       </c>
       <c r="T7">
-        <v>0.009882348588305792</v>
+        <v>0.00514869298616039</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1277.0726910683</v>
+        <v>1288.520629666667</v>
       </c>
       <c r="H8">
-        <v>1277.0726910683</v>
+        <v>3865.561889000001</v>
       </c>
       <c r="I8">
-        <v>0.9478520065798225</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="J8">
-        <v>0.9478520065798225</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.29552741007957</v>
+        <v>0.2304933333333333</v>
       </c>
       <c r="N8">
-        <v>4.29552741007957</v>
+        <v>0.69148</v>
       </c>
       <c r="O8">
-        <v>0.2953265224342183</v>
+        <v>0.01312533644731377</v>
       </c>
       <c r="P8">
-        <v>0.2953265224342183</v>
+        <v>0.01312533644731377</v>
       </c>
       <c r="Q8">
-        <v>5485.700749147962</v>
+        <v>296.9954150006355</v>
       </c>
       <c r="R8">
-        <v>5485.700749147962</v>
+        <v>2672.95873500572</v>
       </c>
       <c r="S8">
-        <v>0.2799258368855148</v>
+        <v>0.0122023299381744</v>
       </c>
       <c r="T8">
-        <v>0.2799258368855148</v>
+        <v>0.01220232993817439</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1277.0726910683</v>
+        <v>1288.520629666667</v>
       </c>
       <c r="H9">
-        <v>1277.0726910683</v>
+        <v>3865.561889000001</v>
       </c>
       <c r="I9">
-        <v>0.9478520065798225</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="J9">
-        <v>0.9478520065798225</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.283070309117136</v>
+        <v>4.313814333333333</v>
       </c>
       <c r="N9">
-        <v>0.283070309117136</v>
+        <v>12.941443</v>
       </c>
       <c r="O9">
-        <v>0.01946167769754597</v>
+        <v>0.2456481655127172</v>
       </c>
       <c r="P9">
-        <v>0.01946167769754597</v>
+        <v>0.2456481655127172</v>
       </c>
       <c r="Q9">
-        <v>361.5013614257564</v>
+        <v>5558.438761051759</v>
       </c>
       <c r="R9">
-        <v>361.5013614257564</v>
+        <v>50025.94884946583</v>
       </c>
       <c r="S9">
-        <v>0.01844679025702873</v>
+        <v>0.2283735717042828</v>
       </c>
       <c r="T9">
-        <v>0.01844679025702873</v>
+        <v>0.2283735717042827</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1277.0726910683</v>
+        <v>1288.520629666667</v>
       </c>
       <c r="H10">
-        <v>1277.0726910683</v>
+        <v>3865.561889000001</v>
       </c>
       <c r="I10">
-        <v>0.9478520065798225</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="J10">
-        <v>0.9478520065798225</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.496229936752384</v>
+        <v>0.2953356666666667</v>
       </c>
       <c r="N10">
-        <v>0.496229936752384</v>
+        <v>0.886007</v>
       </c>
       <c r="O10">
-        <v>0.03411684935473826</v>
+        <v>0.01681775318111172</v>
       </c>
       <c r="P10">
-        <v>0.03411684935473826</v>
+        <v>0.01681775318111172</v>
       </c>
       <c r="Q10">
-        <v>633.7217007170193</v>
+        <v>380.5460991763582</v>
       </c>
       <c r="R10">
-        <v>633.7217007170193</v>
+        <v>3424.914892587223</v>
       </c>
       <c r="S10">
-        <v>0.03233772411907018</v>
+        <v>0.01563508668585076</v>
       </c>
       <c r="T10">
-        <v>0.03233772411907018</v>
+        <v>0.01563508668585075</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1277.0726910683</v>
+        <v>1288.520629666667</v>
       </c>
       <c r="H11">
-        <v>1277.0726910683</v>
+        <v>3865.561889000001</v>
       </c>
       <c r="I11">
-        <v>0.9478520065798225</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="J11">
-        <v>0.9478520065798225</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.31853603120976</v>
+        <v>0.7166709999999999</v>
       </c>
       <c r="N11">
-        <v>9.31853603120976</v>
+        <v>2.150013</v>
       </c>
       <c r="O11">
-        <v>0.6406689045488276</v>
+        <v>0.04081049920619313</v>
       </c>
       <c r="P11">
-        <v>0.6406689045488276</v>
+        <v>0.04081049920619313</v>
       </c>
       <c r="Q11">
-        <v>11900.44788619396</v>
+        <v>923.4453681838397</v>
       </c>
       <c r="R11">
-        <v>11900.44788619396</v>
+        <v>8311.008313654558</v>
       </c>
       <c r="S11">
-        <v>0.607259306729903</v>
+        <v>0.03794060276127168</v>
       </c>
       <c r="T11">
-        <v>0.607259306729903</v>
+        <v>0.03794060276127168</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.16229073701934</v>
+        <v>1288.520629666667</v>
       </c>
       <c r="H12">
-        <v>2.16229073701934</v>
+        <v>3865.561889000001</v>
       </c>
       <c r="I12">
-        <v>0.001604866839786751</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="J12">
-        <v>0.001604866839786751</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.151646949453937</v>
+        <v>0.3116526666666666</v>
       </c>
       <c r="N12">
-        <v>0.151646949453937</v>
+        <v>0.934958</v>
       </c>
       <c r="O12">
-        <v>0.01042604596466986</v>
+        <v>0.0177469172125117</v>
       </c>
       <c r="P12">
-        <v>0.01042604596466986</v>
+        <v>0.0177469172125117</v>
       </c>
       <c r="Q12">
-        <v>0.327904794101488</v>
+        <v>401.5708902906291</v>
       </c>
       <c r="R12">
-        <v>0.327904794101488</v>
+        <v>3614.138012615662</v>
       </c>
       <c r="S12">
-        <v>1.673241543879113E-05</v>
+        <v>0.01649890957704584</v>
       </c>
       <c r="T12">
-        <v>1.673241543879113E-05</v>
+        <v>0.01649890957704584</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.16229073701934</v>
+        <v>1288.520629666667</v>
       </c>
       <c r="H13">
-        <v>2.16229073701934</v>
+        <v>3865.561889000001</v>
       </c>
       <c r="I13">
-        <v>0.001604866839786751</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="J13">
-        <v>0.001604866839786751</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.29552741007957</v>
+        <v>11.69297966666667</v>
       </c>
       <c r="N13">
-        <v>4.29552741007957</v>
+        <v>35.07893900000001</v>
       </c>
       <c r="O13">
-        <v>0.2953265224342183</v>
+        <v>0.6658513284401525</v>
       </c>
       <c r="P13">
-        <v>0.2953265224342183</v>
+        <v>0.6658513284401525</v>
       </c>
       <c r="Q13">
-        <v>9.28817912942773</v>
+        <v>15066.64552277287</v>
       </c>
       <c r="R13">
-        <v>9.28817912942773</v>
+        <v>135599.8097049558</v>
       </c>
       <c r="S13">
-        <v>0.000473959742764215</v>
+        <v>0.6190269965278727</v>
       </c>
       <c r="T13">
-        <v>0.000473959742764215</v>
+        <v>0.6190269965278727</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>2.16229073701934</v>
+        <v>0.9754353333333333</v>
       </c>
       <c r="H14">
-        <v>2.16229073701934</v>
+        <v>2.926306</v>
       </c>
       <c r="I14">
-        <v>0.001604866839786751</v>
+        <v>0.0007037840594007478</v>
       </c>
       <c r="J14">
-        <v>0.001604866839786751</v>
+        <v>0.0007037840594007477</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.283070309117136</v>
+        <v>0.2304933333333333</v>
       </c>
       <c r="N14">
-        <v>0.283070309117136</v>
+        <v>0.69148</v>
       </c>
       <c r="O14">
-        <v>0.01946167769754597</v>
+        <v>0.01312533644731377</v>
       </c>
       <c r="P14">
-        <v>0.01946167769754597</v>
+        <v>0.01312533644731377</v>
       </c>
       <c r="Q14">
-        <v>0.6120803073291843</v>
+        <v>0.2248313414311111</v>
       </c>
       <c r="R14">
-        <v>0.6120803073291843</v>
+        <v>2.02348207288</v>
       </c>
       <c r="S14">
-        <v>3.123340118340889E-05</v>
+        <v>9.237402565891078E-06</v>
       </c>
       <c r="T14">
-        <v>3.123340118340889E-05</v>
+        <v>9.237402565891075E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>2.16229073701934</v>
+        <v>0.9754353333333333</v>
       </c>
       <c r="H15">
-        <v>2.16229073701934</v>
+        <v>2.926306</v>
       </c>
       <c r="I15">
-        <v>0.001604866839786751</v>
+        <v>0.0007037840594007478</v>
       </c>
       <c r="J15">
-        <v>0.001604866839786751</v>
+        <v>0.0007037840594007477</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.496229936752384</v>
+        <v>4.313814333333333</v>
       </c>
       <c r="N15">
-        <v>0.496229936752384</v>
+        <v>12.941443</v>
       </c>
       <c r="O15">
-        <v>0.03411684935473826</v>
+        <v>0.2456481655127172</v>
       </c>
       <c r="P15">
-        <v>0.03411684935473826</v>
+        <v>0.2456481655127172</v>
       </c>
       <c r="Q15">
-        <v>1.072993395671373</v>
+        <v>4.207846922173111</v>
       </c>
       <c r="R15">
-        <v>1.072993395671373</v>
+        <v>37.87062229955799</v>
       </c>
       <c r="S15">
-        <v>5.475300020741945E-05</v>
+        <v>0.0001728832631088869</v>
       </c>
       <c r="T15">
-        <v>5.475300020741945E-05</v>
+        <v>0.0001728832631088869</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,247 +1396,247 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>2.16229073701934</v>
+        <v>0.9754353333333333</v>
       </c>
       <c r="H16">
-        <v>2.16229073701934</v>
+        <v>2.926306</v>
       </c>
       <c r="I16">
-        <v>0.001604866839786751</v>
+        <v>0.0007037840594007478</v>
       </c>
       <c r="J16">
-        <v>0.001604866839786751</v>
+        <v>0.0007037840594007477</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.31853603120976</v>
+        <v>0.2953356666666667</v>
       </c>
       <c r="N16">
-        <v>9.31853603120976</v>
+        <v>0.886007</v>
       </c>
       <c r="O16">
-        <v>0.6406689045488276</v>
+        <v>0.01681775318111172</v>
       </c>
       <c r="P16">
-        <v>0.6406689045488276</v>
+        <v>0.01681775318111172</v>
       </c>
       <c r="Q16">
-        <v>20.14938414286583</v>
+        <v>0.2880808444602222</v>
       </c>
       <c r="R16">
-        <v>20.14938414286583</v>
+        <v>2.592727600142</v>
       </c>
       <c r="S16">
-        <v>0.001028188280192917</v>
+        <v>1.183606660380265E-05</v>
       </c>
       <c r="T16">
-        <v>0.001028188280192917</v>
+        <v>1.183606660380264E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.414603533288968</v>
+        <v>0.9754353333333333</v>
       </c>
       <c r="H17">
-        <v>0.414603533288968</v>
+        <v>2.926306</v>
       </c>
       <c r="I17">
-        <v>0.0003077215523528999</v>
+        <v>0.0007037840594007478</v>
       </c>
       <c r="J17">
-        <v>0.0003077215523528999</v>
+        <v>0.0007037840594007477</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.151646949453937</v>
+        <v>0.7166709999999999</v>
       </c>
       <c r="N17">
-        <v>0.151646949453937</v>
+        <v>2.150013</v>
       </c>
       <c r="O17">
-        <v>0.01042604596466986</v>
+        <v>0.04081049920619313</v>
       </c>
       <c r="P17">
-        <v>0.01042604596466986</v>
+        <v>0.04081049920619313</v>
       </c>
       <c r="Q17">
-        <v>0.06287336105609581</v>
+        <v>0.6990662157753332</v>
       </c>
       <c r="R17">
-        <v>0.06287336105609581</v>
+        <v>6.291595941978</v>
       </c>
       <c r="S17">
-        <v>3.208319049150898E-06</v>
+        <v>2.87217787975056E-05</v>
       </c>
       <c r="T17">
-        <v>3.208319049150898E-06</v>
+        <v>2.87217787975056E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.414603533288968</v>
+        <v>0.9754353333333333</v>
       </c>
       <c r="H18">
-        <v>0.414603533288968</v>
+        <v>2.926306</v>
       </c>
       <c r="I18">
-        <v>0.0003077215523528999</v>
+        <v>0.0007037840594007478</v>
       </c>
       <c r="J18">
-        <v>0.0003077215523528999</v>
+        <v>0.0007037840594007477</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>4.29552741007957</v>
+        <v>0.3116526666666666</v>
       </c>
       <c r="N18">
-        <v>4.29552741007957</v>
+        <v>0.934958</v>
       </c>
       <c r="O18">
-        <v>0.2953265224342183</v>
+        <v>0.0177469172125117</v>
       </c>
       <c r="P18">
-        <v>0.2953265224342183</v>
+        <v>0.0177469172125117</v>
       </c>
       <c r="Q18">
-        <v>1.780940841558599</v>
+        <v>0.3039970227942222</v>
       </c>
       <c r="R18">
-        <v>1.780940841558599</v>
+        <v>2.735973205148</v>
       </c>
       <c r="S18">
-        <v>9.087833593444116E-05</v>
+        <v>1.248999743767049E-05</v>
       </c>
       <c r="T18">
-        <v>9.087833593444116E-05</v>
+        <v>1.248999743767049E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.414603533288968</v>
+        <v>0.9754353333333333</v>
       </c>
       <c r="H19">
-        <v>0.414603533288968</v>
+        <v>2.926306</v>
       </c>
       <c r="I19">
-        <v>0.0003077215523528999</v>
+        <v>0.0007037840594007478</v>
       </c>
       <c r="J19">
-        <v>0.0003077215523528999</v>
+        <v>0.0007037840594007477</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.283070309117136</v>
+        <v>11.69297966666667</v>
       </c>
       <c r="N19">
-        <v>0.283070309117136</v>
+        <v>35.07893900000001</v>
       </c>
       <c r="O19">
-        <v>0.01946167769754597</v>
+        <v>0.6658513284401525</v>
       </c>
       <c r="P19">
-        <v>0.01946167769754597</v>
+        <v>0.6658513284401525</v>
       </c>
       <c r="Q19">
-        <v>0.117361950329165</v>
+        <v>11.40574551881489</v>
       </c>
       <c r="R19">
-        <v>0.117361950329165</v>
+        <v>102.651709669334</v>
       </c>
       <c r="S19">
-        <v>5.988777672480655E-06</v>
+        <v>0.0004686155508869911</v>
       </c>
       <c r="T19">
-        <v>5.988777672480655E-06</v>
+        <v>0.0004686155508869911</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.414603533288968</v>
+        <v>2.246702</v>
       </c>
       <c r="H20">
-        <v>0.414603533288968</v>
+        <v>6.740106</v>
       </c>
       <c r="I20">
-        <v>0.0003077215523528999</v>
+        <v>0.001621012690221507</v>
       </c>
       <c r="J20">
-        <v>0.0003077215523528999</v>
+        <v>0.001621012690221507</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.496229936752384</v>
+        <v>0.2304933333333333</v>
       </c>
       <c r="N20">
-        <v>0.496229936752384</v>
+        <v>0.69148</v>
       </c>
       <c r="O20">
-        <v>0.03411684935473826</v>
+        <v>0.01312533644731377</v>
       </c>
       <c r="P20">
-        <v>0.03411684935473826</v>
+        <v>0.01312533644731377</v>
       </c>
       <c r="Q20">
-        <v>0.2057386851012995</v>
+        <v>0.5178498329866666</v>
       </c>
       <c r="R20">
-        <v>0.2057386851012995</v>
+        <v>4.660648496879999</v>
       </c>
       <c r="S20">
-        <v>1.049848984483009E-05</v>
+        <v>2.12763369445225E-05</v>
       </c>
       <c r="T20">
-        <v>1.049848984483009E-05</v>
+        <v>2.127633694452249E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,309 +1706,309 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.414603533288968</v>
+        <v>2.246702</v>
       </c>
       <c r="H21">
-        <v>0.414603533288968</v>
+        <v>6.740106</v>
       </c>
       <c r="I21">
-        <v>0.0003077215523528999</v>
+        <v>0.001621012690221507</v>
       </c>
       <c r="J21">
-        <v>0.0003077215523528999</v>
+        <v>0.001621012690221507</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>9.31853603120976</v>
+        <v>4.313814333333333</v>
       </c>
       <c r="N21">
-        <v>9.31853603120976</v>
+        <v>12.941443</v>
       </c>
       <c r="O21">
-        <v>0.6406689045488276</v>
+        <v>0.2456481655127172</v>
       </c>
       <c r="P21">
-        <v>0.6406689045488276</v>
+        <v>0.2456481655127172</v>
       </c>
       <c r="Q21">
-        <v>3.863497963620123</v>
+        <v>9.691855290328666</v>
       </c>
       <c r="R21">
-        <v>3.863497963620123</v>
+        <v>87.22669761295799</v>
       </c>
       <c r="S21">
-        <v>0.0001971476298519971</v>
+        <v>0.0003981987936257477</v>
       </c>
       <c r="T21">
-        <v>0.0001971476298519971</v>
+        <v>0.0003981987936257476</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>64.5566556543436</v>
+        <v>2.246702</v>
       </c>
       <c r="H22">
-        <v>64.5566556543436</v>
+        <v>6.740106</v>
       </c>
       <c r="I22">
-        <v>0.04791438735477562</v>
+        <v>0.001621012690221507</v>
       </c>
       <c r="J22">
-        <v>0.04791438735477562</v>
+        <v>0.001621012690221507</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.151646949453937</v>
+        <v>0.2953356666666667</v>
       </c>
       <c r="N22">
-        <v>0.151646949453937</v>
+        <v>0.886007</v>
       </c>
       <c r="O22">
-        <v>0.01042604596466986</v>
+        <v>0.01681775318111172</v>
       </c>
       <c r="P22">
-        <v>0.01042604596466986</v>
+        <v>0.01681775318111172</v>
       </c>
       <c r="Q22">
-        <v>9.78981989692946</v>
+        <v>0.6635312329713333</v>
       </c>
       <c r="R22">
-        <v>9.78981989692946</v>
+        <v>5.971781096742</v>
       </c>
       <c r="S22">
-        <v>0.0004995576049298872</v>
+        <v>2.726179132759522E-05</v>
       </c>
       <c r="T22">
-        <v>0.0004995576049298872</v>
+        <v>2.726179132759521E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>64.5566556543436</v>
+        <v>2.246702</v>
       </c>
       <c r="H23">
-        <v>64.5566556543436</v>
+        <v>6.740106</v>
       </c>
       <c r="I23">
-        <v>0.04791438735477562</v>
+        <v>0.001621012690221507</v>
       </c>
       <c r="J23">
-        <v>0.04791438735477562</v>
+        <v>0.001621012690221507</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.29552741007957</v>
+        <v>0.7166709999999999</v>
       </c>
       <c r="N23">
-        <v>4.29552741007957</v>
+        <v>2.150013</v>
       </c>
       <c r="O23">
-        <v>0.2953265224342183</v>
+        <v>0.04081049920619313</v>
       </c>
       <c r="P23">
-        <v>0.2953265224342183</v>
+        <v>0.04081049920619313</v>
       </c>
       <c r="Q23">
-        <v>277.3048838663012</v>
+        <v>1.610146169042</v>
       </c>
       <c r="R23">
-        <v>277.3048838663012</v>
+        <v>14.491315521378</v>
       </c>
       <c r="S23">
-        <v>0.01415038939205197</v>
+        <v>6.61543371075138E-05</v>
       </c>
       <c r="T23">
-        <v>0.01415038939205197</v>
+        <v>6.61543371075138E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>64.5566556543436</v>
+        <v>2.246702</v>
       </c>
       <c r="H24">
-        <v>64.5566556543436</v>
+        <v>6.740106</v>
       </c>
       <c r="I24">
-        <v>0.04791438735477562</v>
+        <v>0.001621012690221507</v>
       </c>
       <c r="J24">
-        <v>0.04791438735477562</v>
+        <v>0.001621012690221507</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.283070309117136</v>
+        <v>0.3116526666666666</v>
       </c>
       <c r="N24">
-        <v>0.283070309117136</v>
+        <v>0.934958</v>
       </c>
       <c r="O24">
-        <v>0.01946167769754597</v>
+        <v>0.0177469172125117</v>
       </c>
       <c r="P24">
-        <v>0.01946167769754597</v>
+        <v>0.0177469172125117</v>
       </c>
       <c r="Q24">
-        <v>18.27407247164355</v>
+        <v>0.7001906695053333</v>
       </c>
       <c r="R24">
-        <v>18.27407247164355</v>
+        <v>6.301716025548</v>
       </c>
       <c r="S24">
-        <v>0.0009324943637740153</v>
+        <v>2.876797801379195E-05</v>
       </c>
       <c r="T24">
-        <v>0.0009324943637740153</v>
+        <v>2.876797801379195E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>22</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>64.5566556543436</v>
+        <v>2.246702</v>
       </c>
       <c r="H25">
-        <v>64.5566556543436</v>
+        <v>6.740106</v>
       </c>
       <c r="I25">
-        <v>0.04791438735477562</v>
+        <v>0.001621012690221507</v>
       </c>
       <c r="J25">
-        <v>0.04791438735477562</v>
+        <v>0.001621012690221507</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.496229936752384</v>
+        <v>11.69297966666667</v>
       </c>
       <c r="N25">
-        <v>0.496229936752384</v>
+        <v>35.07893900000001</v>
       </c>
       <c r="O25">
-        <v>0.03411684935473826</v>
+        <v>0.6658513284401525</v>
       </c>
       <c r="P25">
-        <v>0.03411684935473826</v>
+        <v>0.6658513284401525</v>
       </c>
       <c r="Q25">
-        <v>32.03494515230036</v>
+        <v>26.27064080305934</v>
       </c>
       <c r="R25">
-        <v>32.03494515230036</v>
+        <v>236.435767227534</v>
       </c>
       <c r="S25">
-        <v>0.001634687935307456</v>
+        <v>0.001079353453202336</v>
       </c>
       <c r="T25">
-        <v>0.001634687935307456</v>
+        <v>0.001079353453202336</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,743 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.4452746666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.335824</v>
+      </c>
+      <c r="I26">
+        <v>0.0003212690803234332</v>
+      </c>
+      <c r="J26">
+        <v>0.0003212690803234332</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.2304933333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.69148</v>
+      </c>
+      <c r="O26">
+        <v>0.01312533644731377</v>
+      </c>
+      <c r="P26">
+        <v>0.01312533644731377</v>
+      </c>
+      <c r="Q26">
+        <v>0.1026328421688889</v>
+      </c>
+      <c r="R26">
+        <v>0.92369557952</v>
+      </c>
+      <c r="S26">
+        <v>4.216764769364135E-06</v>
+      </c>
+      <c r="T26">
+        <v>4.216764769364134E-06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.4452746666666667</v>
+      </c>
+      <c r="H27">
+        <v>1.335824</v>
+      </c>
+      <c r="I27">
+        <v>0.0003212690803234332</v>
+      </c>
+      <c r="J27">
+        <v>0.0003212690803234332</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>4.313814333333333</v>
+      </c>
+      <c r="N27">
+        <v>12.941443</v>
+      </c>
+      <c r="O27">
+        <v>0.2456481655127172</v>
+      </c>
+      <c r="P27">
+        <v>0.2456481655127172</v>
+      </c>
+      <c r="Q27">
+        <v>1.920832239336889</v>
+      </c>
+      <c r="R27">
+        <v>17.287490154032</v>
+      </c>
+      <c r="S27">
+        <v>7.891916021740917E-05</v>
+      </c>
+      <c r="T27">
+        <v>7.891916021740917E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.4452746666666667</v>
+      </c>
+      <c r="H28">
+        <v>1.335824</v>
+      </c>
+      <c r="I28">
+        <v>0.0003212690803234332</v>
+      </c>
+      <c r="J28">
+        <v>0.0003212690803234332</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.2953356666666667</v>
+      </c>
+      <c r="N28">
+        <v>0.886007</v>
+      </c>
+      <c r="O28">
+        <v>0.01681775318111172</v>
+      </c>
+      <c r="P28">
+        <v>0.01681775318111172</v>
+      </c>
+      <c r="Q28">
+        <v>0.1315054905297778</v>
+      </c>
+      <c r="R28">
+        <v>1.183549414768</v>
+      </c>
+      <c r="S28">
+        <v>5.403024097602258E-06</v>
+      </c>
+      <c r="T28">
+        <v>5.403024097602256E-06</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.4452746666666667</v>
+      </c>
+      <c r="H29">
+        <v>1.335824</v>
+      </c>
+      <c r="I29">
+        <v>0.0003212690803234332</v>
+      </c>
+      <c r="J29">
+        <v>0.0003212690803234332</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.7166709999999999</v>
+      </c>
+      <c r="N29">
+        <v>2.150013</v>
+      </c>
+      <c r="O29">
+        <v>0.04081049920619313</v>
+      </c>
+      <c r="P29">
+        <v>0.04081049920619313</v>
+      </c>
+      <c r="Q29">
+        <v>0.3191154406346667</v>
+      </c>
+      <c r="R29">
+        <v>2.872038965712</v>
+      </c>
+      <c r="S29">
+        <v>1.311115154751387E-05</v>
+      </c>
+      <c r="T29">
+        <v>1.311115154751387E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.4452746666666667</v>
+      </c>
+      <c r="H30">
+        <v>1.335824</v>
+      </c>
+      <c r="I30">
+        <v>0.0003212690803234332</v>
+      </c>
+      <c r="J30">
+        <v>0.0003212690803234332</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.3116526666666666</v>
+      </c>
+      <c r="N30">
+        <v>0.934958</v>
+      </c>
+      <c r="O30">
+        <v>0.0177469172125117</v>
+      </c>
+      <c r="P30">
+        <v>0.0177469172125117</v>
+      </c>
+      <c r="Q30">
+        <v>0.1387710372657778</v>
+      </c>
+      <c r="R30">
+        <v>1.248939335392</v>
+      </c>
+      <c r="S30">
+        <v>5.701535771439741E-06</v>
+      </c>
+      <c r="T30">
+        <v>5.701535771439741E-06</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.4452746666666667</v>
+      </c>
+      <c r="H31">
+        <v>1.335824</v>
+      </c>
+      <c r="I31">
+        <v>0.0003212690803234332</v>
+      </c>
+      <c r="J31">
+        <v>0.0003212690803234332</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>11.69297966666667</v>
+      </c>
+      <c r="N31">
+        <v>35.07893900000001</v>
+      </c>
+      <c r="O31">
+        <v>0.6658513284401525</v>
+      </c>
+      <c r="P31">
+        <v>0.6658513284401525</v>
+      </c>
+      <c r="Q31">
+        <v>5.206587623415112</v>
+      </c>
+      <c r="R31">
+        <v>46.85928861073601</v>
+      </c>
+      <c r="S31">
+        <v>0.0002139174439201041</v>
+      </c>
+      <c r="T31">
+        <v>0.0002139174439201041</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>83.08150333333333</v>
+      </c>
+      <c r="H32">
+        <v>249.24451</v>
+      </c>
+      <c r="I32">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="J32">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.2304933333333333</v>
+      </c>
+      <c r="N32">
+        <v>0.69148</v>
+      </c>
+      <c r="O32">
+        <v>0.01312533644731377</v>
+      </c>
+      <c r="P32">
+        <v>0.01312533644731377</v>
+      </c>
+      <c r="Q32">
+        <v>19.14973264164444</v>
+      </c>
+      <c r="R32">
+        <v>172.3475937748</v>
+      </c>
+      <c r="S32">
+        <v>0.000786784388306713</v>
+      </c>
+      <c r="T32">
+        <v>0.000786784388306713</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>83.08150333333333</v>
+      </c>
+      <c r="H33">
+        <v>249.24451</v>
+      </c>
+      <c r="I33">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="J33">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>4.313814333333333</v>
+      </c>
+      <c r="N33">
+        <v>12.941443</v>
+      </c>
+      <c r="O33">
+        <v>0.2456481655127172</v>
+      </c>
+      <c r="P33">
+        <v>0.2456481655127172</v>
+      </c>
+      <c r="Q33">
+        <v>358.3981799142144</v>
+      </c>
+      <c r="R33">
+        <v>3225.58361922793</v>
+      </c>
+      <c r="S33">
+        <v>0.0147251190411309</v>
+      </c>
+      <c r="T33">
+        <v>0.0147251190411309</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>83.08150333333333</v>
+      </c>
+      <c r="H34">
+        <v>249.24451</v>
+      </c>
+      <c r="I34">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="J34">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.2953356666666667</v>
+      </c>
+      <c r="N34">
+        <v>0.886007</v>
+      </c>
+      <c r="O34">
+        <v>0.01681775318111172</v>
+      </c>
+      <c r="P34">
+        <v>0.01681775318111172</v>
+      </c>
+      <c r="Q34">
+        <v>24.53693117461889</v>
+      </c>
+      <c r="R34">
+        <v>220.83238057157</v>
+      </c>
+      <c r="S34">
+        <v>0.001008122397654981</v>
+      </c>
+      <c r="T34">
+        <v>0.00100812239765498</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>83.08150333333333</v>
+      </c>
+      <c r="H35">
+        <v>249.24451</v>
+      </c>
+      <c r="I35">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="J35">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.7166709999999999</v>
+      </c>
+      <c r="N35">
+        <v>2.150013</v>
+      </c>
+      <c r="O35">
+        <v>0.04081049920619313</v>
+      </c>
+      <c r="P35">
+        <v>0.04081049920619313</v>
+      </c>
+      <c r="Q35">
+        <v>59.54210407540333</v>
+      </c>
+      <c r="R35">
+        <v>535.87893667863</v>
+      </c>
+      <c r="S35">
+        <v>0.002446342140129116</v>
+      </c>
+      <c r="T35">
+        <v>0.002446342140129116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>64.5566556543436</v>
-      </c>
-      <c r="H26">
-        <v>64.5566556543436</v>
-      </c>
-      <c r="I26">
-        <v>0.04791438735477562</v>
-      </c>
-      <c r="J26">
-        <v>0.04791438735477562</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>9.31853603120976</v>
-      </c>
-      <c r="N26">
-        <v>9.31853603120976</v>
-      </c>
-      <c r="O26">
-        <v>0.6406689045488276</v>
-      </c>
-      <c r="P26">
-        <v>0.6406689045488276</v>
-      </c>
-      <c r="Q26">
-        <v>601.5735217694021</v>
-      </c>
-      <c r="R26">
-        <v>601.5735217694021</v>
-      </c>
-      <c r="S26">
-        <v>0.0306972580587123</v>
-      </c>
-      <c r="T26">
-        <v>0.0306972580587123</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>83.08150333333333</v>
+      </c>
+      <c r="H36">
+        <v>249.24451</v>
+      </c>
+      <c r="I36">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="J36">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M36">
+        <v>0.3116526666666666</v>
+      </c>
+      <c r="N36">
+        <v>0.934958</v>
+      </c>
+      <c r="O36">
+        <v>0.0177469172125117</v>
+      </c>
+      <c r="P36">
+        <v>0.0177469172125117</v>
+      </c>
+      <c r="Q36">
+        <v>25.89257206450889</v>
+      </c>
+      <c r="R36">
+        <v>233.03314858058</v>
+      </c>
+      <c r="S36">
+        <v>0.001063820151157615</v>
+      </c>
+      <c r="T36">
+        <v>0.001063820151157615</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>83.08150333333333</v>
+      </c>
+      <c r="H37">
+        <v>249.24451</v>
+      </c>
+      <c r="I37">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="J37">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>11.69297966666667</v>
+      </c>
+      <c r="N37">
+        <v>35.07893900000001</v>
+      </c>
+      <c r="O37">
+        <v>0.6658513284401525</v>
+      </c>
+      <c r="P37">
+        <v>0.6658513284401525</v>
+      </c>
+      <c r="Q37">
+        <v>971.4703291527657</v>
+      </c>
+      <c r="R37">
+        <v>8743.232962374892</v>
+      </c>
+      <c r="S37">
+        <v>0.03991375247811</v>
+      </c>
+      <c r="T37">
+        <v>0.03991375247811</v>
       </c>
     </row>
   </sheetData>
